--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_Econtrol.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_Econtrol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhongKyThuat\2. Baocaobaohanh\Nam2020\Thang10\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang10\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,13 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -323,11 +324,14 @@
   <si>
     <t>Set Factory</t>
   </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,6 +798,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -844,12 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,43 +1194,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1271,58 +1275,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1347,24 +1351,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1406,7 +1410,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1463,7 +1467,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1492,7 +1496,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1525,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1550,7 +1554,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1583,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1612,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1639,7 +1643,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +1701,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1726,7 +1730,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2960,10 +2964,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -2992,8 +2996,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3019,8 +3023,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4338,7 +4342,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4369,43 +4373,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4450,58 +4454,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4526,24 +4530,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4574,7 +4578,7 @@
       <c r="J6" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="79" t="s">
         <v>74</v>
       </c>
       <c r="L6" s="56" t="s">
@@ -4597,7 +4601,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4644,7 +4648,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4701,7 +4705,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4727,13 +4731,13 @@
         <v>67</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="80" t="s">
         <v>84</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="79" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="56" t="s">
@@ -4758,7 +4762,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4813,7 +4817,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4842,7 +4846,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4871,7 +4875,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4902,7 +4906,7 @@
       <c r="S13" s="77"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4921,7 +4925,9 @@
       <c r="I14" s="78"/>
       <c r="J14" s="77"/>
       <c r="K14" s="73"/>
-      <c r="L14" s="56"/>
+      <c r="L14" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="M14" s="53"/>
       <c r="N14" s="77"/>
       <c r="O14" s="73"/>
@@ -4931,7 +4937,7 @@
       <c r="S14" s="77"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4960,7 +4966,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4989,7 +4995,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6223,10 +6229,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6255,8 +6261,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6282,8 +6288,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7632,43 +7638,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7713,58 +7719,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7789,24 +7795,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7832,7 +7838,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7863,7 +7869,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7892,7 +7898,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7921,7 +7927,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7950,7 +7956,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7979,7 +7985,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8008,7 +8014,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8039,7 +8045,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8068,7 +8074,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8097,7 +8103,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8126,7 +8132,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9360,10 +9366,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9392,8 +9398,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9419,8 +9425,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_Econtrol.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_Econtrol.xlsx
@@ -25,12 +25,11 @@
     <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -326,6 +325,9 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1165,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1379,9 @@
       <c r="B6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>88</v>
       </c>
@@ -1424,7 +1428,9 @@
       <c r="B7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>88</v>
       </c>
@@ -4342,7 +4348,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4360,7 @@
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
@@ -4556,7 +4562,9 @@
       <c r="B6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>51</v>
       </c>
@@ -4615,7 +4623,9 @@
       <c r="B7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>51</v>
       </c>
@@ -4660,7 +4670,9 @@
       <c r="B8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>51</v>
       </c>
@@ -4717,7 +4729,9 @@
       <c r="B9" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>51</v>
       </c>
@@ -4774,7 +4788,9 @@
       <c r="B10" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>51</v>
       </c>
